--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T14:54:02+00:00</t>
+    <t>2023-03-24T14:54:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
